--- a/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,151 +40,166 @@
     <t>name</t>
   </si>
   <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>poorly</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>tiny</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
     <t>piece</t>
   </si>
   <si>
+    <t>air</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>instructions</t>
   </si>
   <si>
-    <t>tiny</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>doll</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>lasted</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>balls</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>light</t>
+    <t>otherwise</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>doll</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>money</t>
@@ -193,115 +208,184 @@
     <t>sent</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
     <t>pieces</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>product</t>
+    <t>two</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>challenge</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>helicopter</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>elf</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>helicopter</t>
+    <t>favorite</t>
   </si>
   <si>
     <t>blast</t>
   </si>
   <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>story</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>strategy</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>thomas</t>
   </si>
   <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>stores</t>
+    <t>lego</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>ages</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>wait</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>educational</t>
+    <t>challenging</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>books</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>lots</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>lots</t>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>enjoys</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
     <t>book</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
     <t>recommend</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>playing</t>
   </si>
   <si>
     <t>positive</t>
@@ -662,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,10 +754,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -752,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="K3">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="L3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -773,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -781,13 +865,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -799,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K4">
-        <v>0.921875</v>
+        <v>0.875</v>
       </c>
       <c r="L4">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -823,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -831,13 +915,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9789473684210527</v>
+        <v>0.9932432432432432</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -849,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="K5">
-        <v>0.8769230769230769</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -873,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -881,13 +965,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9757281553398058</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="C6">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K6">
-        <v>0.8679245283018868</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L6">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -923,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -931,13 +1015,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.967741935483871</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C7">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -949,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K7">
-        <v>0.859375</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -981,13 +1065,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.967741935483871</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -999,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8195020746887967</v>
       </c>
       <c r="L8">
-        <v>66</v>
+        <v>395</v>
       </c>
       <c r="M8">
-        <v>66</v>
+        <v>395</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1023,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1031,13 +1115,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9565217391304348</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1052,16 +1136,16 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1073,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1081,13 +1165,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9444444444444444</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="D10">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1099,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K10">
-        <v>0.8392857142857143</v>
+        <v>0.7922077922077922</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1123,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1131,13 +1215,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9272727272727272</v>
+        <v>0.9660194174757282</v>
       </c>
       <c r="C11">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1149,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L11">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1173,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1181,13 +1265,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.9206349206349206</v>
+        <v>0.9578947368421052</v>
       </c>
       <c r="C12">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="D12">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1199,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="K12">
-        <v>0.8085106382978723</v>
+        <v>0.7819225251076041</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>545</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>545</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1223,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1231,13 +1315,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.9090909090909091</v>
+        <v>0.90625</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1249,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="K13">
-        <v>0.8070539419087137</v>
+        <v>0.78125</v>
       </c>
       <c r="L13">
-        <v>389</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>389</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1273,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1281,13 +1365,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8984375</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C14">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="D14">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1299,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K14">
-        <v>0.8064516129032258</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="L14">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M14">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1323,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1331,13 +1415,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.875</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="C15">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1349,31 +1433,31 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15">
+        <v>0.75</v>
+      </c>
+      <c r="L15">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>24</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>8</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15">
-        <v>0.7804878048780488</v>
-      </c>
-      <c r="L15">
-        <v>544</v>
-      </c>
-      <c r="M15">
-        <v>544</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1381,13 +1465,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8688524590163934</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1399,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="K16">
         <v>0.7096774193548387</v>
@@ -1431,13 +1515,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8214285714285714</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1449,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="K17">
-        <v>0.6829268292682927</v>
+        <v>0.7003058103975535</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>229</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>229</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1473,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1481,13 +1565,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8157894736842105</v>
+        <v>0.8125</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1499,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="K18">
-        <v>0.6811594202898551</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1523,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1531,13 +1615,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8157894736842105</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1549,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K19">
         <v>0.6785714285714286</v>
@@ -1581,13 +1665,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.8151658767772512</v>
+        <v>0.8</v>
       </c>
       <c r="C20">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1599,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K20">
-        <v>0.6727272727272727</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1623,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1631,13 +1715,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7777777777777778</v>
+        <v>0.7914691943127962</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1649,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="K21">
-        <v>0.6483180428134556</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="L21">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1673,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>115</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1681,13 +1765,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7702702702702703</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1699,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K22">
-        <v>0.6206896551724138</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1723,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1731,13 +1815,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7681159420289855</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="C23">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1749,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="K23">
-        <v>0.5873666940114848</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="L23">
-        <v>716</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>717</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1770,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>503</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1781,13 +1865,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7590361445783133</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C24">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1799,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K24">
-        <v>0.5128205128205128</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1823,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1831,13 +1915,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7301587301587301</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1849,19 +1933,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.5545529122231337</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>676</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>677</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1870,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1881,13 +1965,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7142857142857143</v>
+        <v>0.7228915662650602</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1899,19 +1983,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K26">
-        <v>0.4512534818941504</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L26">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="M26">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1923,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>197</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1931,13 +2015,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6907216494845361</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C27">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1949,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="K27">
-        <v>0.3493975903614458</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L27">
         <v>58</v>
@@ -1973,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>108</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1981,13 +2065,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6829268292682927</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="C28">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D28">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1999,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="K28">
-        <v>0.3396226415094339</v>
+        <v>0.4930362116991643</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2023,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>35</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2031,13 +2115,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6666666666666666</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C29">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2049,19 +2133,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K29">
-        <v>0.2751322751322751</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="L29">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2073,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>137</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2081,13 +2165,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6578947368421053</v>
+        <v>0.7010309278350515</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2099,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K30">
-        <v>0.2582738481505516</v>
+        <v>0.44</v>
       </c>
       <c r="L30">
-        <v>398</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>398</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2123,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1143</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2131,13 +2215,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6571428571428571</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2149,19 +2233,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="K31">
-        <v>0.1967213114754098</v>
+        <v>0.4</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2173,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2181,13 +2265,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6302521008403361</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C32">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2199,19 +2283,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K32">
-        <v>0.1770376862401402</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L32">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2223,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>939</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2231,13 +2315,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.625</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2249,19 +2333,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="K33">
-        <v>0.1038961038961039</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2273,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2281,13 +2365,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6206896551724138</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="C34">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2299,19 +2383,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K34">
-        <v>0.05208333333333334</v>
+        <v>0.3032786885245902</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2323,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>273</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2331,13 +2415,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6111111111111112</v>
+        <v>0.65</v>
       </c>
       <c r="C35">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2349,7 +2433,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K35">
+        <v>0.3</v>
+      </c>
+      <c r="L35">
+        <v>36</v>
+      </c>
+      <c r="M35">
+        <v>36</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2357,13 +2465,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.6111111111111112</v>
+        <v>0.6405797101449275</v>
       </c>
       <c r="C36">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="D36">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2375,7 +2483,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>42</v>
+        <v>124</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36">
+        <v>0.2933160285528877</v>
+      </c>
+      <c r="L36">
+        <v>452</v>
+      </c>
+      <c r="M36">
+        <v>452</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>1089</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2383,13 +2515,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.6</v>
+        <v>0.6089108910891089</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2401,7 +2533,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>18</v>
+        <v>79</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K37">
+        <v>0.2898550724637681</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2409,13 +2565,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.599009900990099</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C38">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2427,7 +2583,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38">
+        <v>0.2459016393442623</v>
+      </c>
+      <c r="L38">
+        <v>15</v>
+      </c>
+      <c r="M38">
+        <v>15</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2435,13 +2615,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5714285714285714</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2453,7 +2633,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K39">
+        <v>0.2304995617879053</v>
+      </c>
+      <c r="L39">
+        <v>263</v>
+      </c>
+      <c r="M39">
+        <v>263</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>878</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2461,13 +2665,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5416666666666666</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C40">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2479,7 +2683,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K40">
+        <v>0.2282608695652174</v>
+      </c>
+      <c r="L40">
+        <v>21</v>
+      </c>
+      <c r="M40">
+        <v>21</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2487,13 +2715,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5379746835443038</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="C41">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="D41">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2505,7 +2733,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>146</v>
+        <v>39</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K41">
+        <v>0.224</v>
+      </c>
+      <c r="L41">
+        <v>28</v>
+      </c>
+      <c r="M41">
+        <v>28</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2513,13 +2765,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.53125</v>
+        <v>0.5462184873949579</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D42">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2531,7 +2783,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K42">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="L42">
+        <v>22</v>
+      </c>
+      <c r="M42">
+        <v>22</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2539,25 +2815,49 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5238095238095238</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C43">
+        <v>49</v>
+      </c>
+      <c r="D43">
+        <v>49</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>42</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K43">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L43">
         <v>22</v>
       </c>
-      <c r="D43">
+      <c r="M43">
         <v>22</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>20</v>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2565,13 +2865,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.5</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2583,7 +2883,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K44">
+        <v>0.1328125</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44">
+        <v>17</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2591,13 +2915,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4693877551020408</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2609,7 +2933,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K45">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="L45">
+        <v>28</v>
+      </c>
+      <c r="M45">
+        <v>28</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2617,13 +2965,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4065934065934066</v>
+        <v>0.4683544303797468</v>
       </c>
       <c r="C46">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="D46">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2635,7 +2983,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>54</v>
+        <v>168</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K46">
+        <v>0.06648936170212766</v>
+      </c>
+      <c r="L46">
+        <v>50</v>
+      </c>
+      <c r="M46">
+        <v>50</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>702</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2643,25 +3015,49 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3392857142857143</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>18</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K47">
+        <v>0.05864197530864197</v>
+      </c>
+      <c r="L47">
         <v>19</v>
       </c>
-      <c r="D47">
+      <c r="M47">
         <v>19</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>37</v>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2669,13 +3065,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="C48">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2687,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>136</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2695,13 +3091,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3023255813953488</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D49">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2713,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2721,13 +3117,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2941176470588235</v>
+        <v>0.322463768115942</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2739,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>36</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2747,13 +3143,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2536231884057971</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="C51">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="D51">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2765,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>206</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2773,13 +3169,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2436708860759494</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C52">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="D52">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2791,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>239</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2799,13 +3195,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2380952380952381</v>
+        <v>0.303370786516854</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2817,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2825,13 +3221,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1420765027322404</v>
+        <v>0.3</v>
       </c>
       <c r="C54">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D54">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2843,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2851,25 +3247,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.112927191679049</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C55">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="D55">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E55">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>597</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2877,13 +3273,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.03524229074889868</v>
+        <v>0.2578125</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2895,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>438</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2903,13 +3299,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03511450381679389</v>
+        <v>0.2563291139240506</v>
       </c>
       <c r="C57">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="D57">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2921,7 +3317,397 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>632</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="C59">
+        <v>26</v>
+      </c>
+      <c r="D59">
+        <v>26</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.1695906432748538</v>
+      </c>
+      <c r="C60">
+        <v>29</v>
+      </c>
+      <c r="D60">
+        <v>29</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.1436781609195402</v>
+      </c>
+      <c r="C61">
+        <v>50</v>
+      </c>
+      <c r="D61">
+        <v>50</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.1424050632911392</v>
+      </c>
+      <c r="C62">
+        <v>45</v>
+      </c>
+      <c r="D62">
+        <v>46</v>
+      </c>
+      <c r="E62">
+        <v>0.02</v>
+      </c>
+      <c r="F62">
+        <v>0.98</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.1387665198237885</v>
+      </c>
+      <c r="C63">
+        <v>63</v>
+      </c>
+      <c r="D63">
+        <v>63</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.1367521367521368</v>
+      </c>
+      <c r="C64">
+        <v>16</v>
+      </c>
+      <c r="D64">
+        <v>16</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.1311475409836066</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
+      <c r="D65">
+        <v>24</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.1292719167904904</v>
+      </c>
+      <c r="C66">
+        <v>87</v>
+      </c>
+      <c r="D66">
+        <v>88</v>
+      </c>
+      <c r="E66">
+        <v>0.01</v>
+      </c>
+      <c r="F66">
+        <v>0.99</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.1275510204081633</v>
+      </c>
+      <c r="C67">
+        <v>25</v>
+      </c>
+      <c r="D67">
+        <v>25</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.1214285714285714</v>
+      </c>
+      <c r="C68">
+        <v>17</v>
+      </c>
+      <c r="D68">
+        <v>17</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.1181102362204724</v>
+      </c>
+      <c r="C69">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>15</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0.09923664122137404</v>
+      </c>
+      <c r="C70">
+        <v>65</v>
+      </c>
+      <c r="D70">
+        <v>65</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>0.05070422535211268</v>
+      </c>
+      <c r="C71">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>18</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>0.04861111111111111</v>
+      </c>
+      <c r="C72">
+        <v>21</v>
+      </c>
+      <c r="D72">
+        <v>22</v>
+      </c>
+      <c r="E72">
+        <v>0.05</v>
+      </c>
+      <c r="F72">
+        <v>0.95</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
